--- a/data/data_koae/excel/KOAE_2004.xlsx
+++ b/data/data_koae/excel/KOAE_2004.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Desktop\KilaueaKoaProject\data_koae\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Desktop\KilaueaKoaeProject\KilaueaKoaeProject\data\data_koae\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ex" sheetId="2" r:id="rId1"/>
@@ -26,301 +26,76 @@
     <t>K002</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469283.5089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518480.8323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099460.9494</t>
-  </si>
-  <si>
     <t>K003</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469324.0624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518495.0711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099346.9144</t>
-  </si>
-  <si>
     <t>K004</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469345.4396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518520.2892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099255.0066</t>
-  </si>
-  <si>
     <t>K009</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469158.2990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518324.4005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100028.8280</t>
-  </si>
-  <si>
     <t>K010</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469128.9638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518299.3001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100135.3305</t>
-  </si>
-  <si>
     <t>K013</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469110.4639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518159.7735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100404.7491</t>
-  </si>
-  <si>
     <t>K014</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469109.6200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518145.4573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100420.2301</t>
-  </si>
-  <si>
     <t>K015</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469127.1331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518101.1795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100423.4630</t>
-  </si>
-  <si>
     <t>K016</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469096.2622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518107.8855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100494.3416</t>
-  </si>
-  <si>
     <t>K018</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469068.7298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518069.7853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100602.8789</t>
-  </si>
-  <si>
     <t>K019</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469048.7357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518034.3934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100707.2867</t>
-  </si>
-  <si>
     <t>K022</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469070.6469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518099.9394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100551.2572</t>
-  </si>
-  <si>
     <t>K025</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468998.0170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517810.8398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101172.6083</t>
-  </si>
-  <si>
     <t>K028</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468955.8286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517712.6994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101353.9579</t>
-  </si>
-  <si>
     <t>K029</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468931.9443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517684.9286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101458.2307</t>
-  </si>
-  <si>
     <t>K034</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468867.7900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517570.2942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101806.5889</t>
-  </si>
-  <si>
     <t>K037</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468818.8862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517421.4607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102102.9380</t>
-  </si>
-  <si>
     <t>K038</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468798.9972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517391.0079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102205.5325</t>
-  </si>
-  <si>
     <t>K044</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468742.3597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517123.3753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102684.3096</t>
-  </si>
-  <si>
     <t>K045</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468636.3968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517277.0767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102790.2760</t>
-  </si>
-  <si>
     <t>K046</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468608.6621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517222.4092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102933.8526</t>
-  </si>
-  <si>
     <t>K059</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469870.3838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518175.0437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098124.4099</t>
-  </si>
-  <si>
     <t>K060</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469912.4799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518147.8135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098032.9361</t>
-  </si>
-  <si>
     <t>K063</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469993.2482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518185.3709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2097751.6842</t>
-  </si>
-  <si>
     <t>K064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5470014.5775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518193.4067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2097673.9122</t>
   </si>
   <si>
     <t>id site</t>
@@ -394,6 +169,231 @@
   </si>
   <si>
     <t>nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469283.5378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518480.6898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099461.0427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469324.0913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518494.9286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099347.0077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469345.4665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518520.1568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099255.0933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469158.3406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518324.1956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100028.9621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469128.9970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518299.1365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100135.4376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469110.5086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518159.5534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100404.8932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469109.6584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518145.2680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100420.3540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469127.1606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518101.0444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100423.5515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469096.2937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518107.7302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100494.4433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469068.7538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518069.6667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100602.9566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469048.7779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518034.1855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100707.4228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469070.6828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518099.7627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100551.3729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468998.0592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517810.6316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101172.7446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468955.8747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517712.4723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101354.1066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468931.9866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517684.7203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101458.3671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468867.8259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517570.1172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101806.7049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468818.9174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517421.3068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102103.0387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468799.0283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517390.8540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102205.6333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468742.4049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517123.1519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102684.4559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468636.4420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517276.8533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102790.4223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468608.6969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517222.2371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102933.9653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469870.4236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518174.8475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098124.5384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469912.5129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518147.6510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098033.0425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469993.2812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518185.2084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2097751.7906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5470014.5809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518193.3901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2097673.9230</t>
   </si>
   <si>
     <t>NaN</t>
@@ -1272,45 +1272,45 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1319,7 +1319,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -1340,7 +1340,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A3" sqref="A3:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1351,30 +1351,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>2004</v>
@@ -1414,16 +1414,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>2004</v>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>2004</v>
@@ -1460,16 +1460,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>2004</v>
@@ -1483,16 +1483,16 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>2004</v>
@@ -1506,16 +1506,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>2004</v>
@@ -1529,16 +1529,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>2004</v>
@@ -1552,16 +1552,16 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <v>2004</v>
@@ -1575,16 +1575,16 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="E11">
         <v>2004</v>
@@ -1598,16 +1598,16 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="E12">
         <v>2004</v>
@@ -1621,16 +1621,16 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>2004</v>
@@ -1644,16 +1644,16 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E14">
         <v>2004</v>
@@ -1667,16 +1667,16 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E15">
         <v>2004</v>
@@ -1690,16 +1690,16 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="E16">
         <v>2004</v>
@@ -1713,16 +1713,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="E17">
         <v>2004</v>
@@ -1736,16 +1736,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E18">
         <v>2004</v>
@@ -1759,16 +1759,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <v>2004</v>
@@ -1782,16 +1782,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="E20">
         <v>2004</v>
@@ -1805,16 +1805,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E21">
         <v>2004</v>
@@ -1828,16 +1828,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E22">
         <v>2004</v>
@@ -1851,16 +1851,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>2004</v>
@@ -1874,16 +1874,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="E24">
         <v>2004</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E25">
         <v>2004</v>
@@ -1920,16 +1920,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E26">
         <v>2004</v>
@@ -1943,16 +1943,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E27">
         <v>2004</v>
@@ -1979,6 +1979,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1988,22 +1991,22 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
         <v>123</v>
@@ -2035,28 +2038,28 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>19.342250195750601</v>
+        <v>19.3422510906768</v>
       </c>
       <c r="I2">
-        <v>-155.27500326694999</v>
+        <v>-155.27500461363101</v>
       </c>
       <c r="J2">
-        <v>988.75289022736297</v>
+        <v>988.75232271384505</v>
       </c>
       <c r="K2">
-        <v>261000.585023797</v>
+        <v>261000.44479421701</v>
       </c>
       <c r="L2">
-        <v>2140269.522754</v>
+        <v>2140269.6237029899</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -2073,28 +2076,28 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="H3">
-        <v>19.341150316601599</v>
+        <v>19.341151211527102</v>
       </c>
       <c r="I3">
-        <v>-155.275041600782</v>
+        <v>-155.27504294745401</v>
       </c>
       <c r="J3">
-        <v>991.36058229394303</v>
+        <v>991.36001296527695</v>
       </c>
       <c r="K3">
-        <v>260994.953844025</v>
+        <v>260994.81361442601</v>
       </c>
       <c r="L3">
-        <v>2140147.7966066799</v>
+        <v>2140147.8975555198</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -2111,28 +2114,28 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="H4">
-        <v>19.3402773864868</v>
+        <v>19.340278217961799</v>
       </c>
       <c r="I4">
-        <v>-155.27490871803201</v>
+        <v>-155.27490996943999</v>
       </c>
       <c r="J4">
-        <v>989.19631281029399</v>
+        <v>989.19582783617102</v>
       </c>
       <c r="K4">
-        <v>261007.648038427</v>
+        <v>261007.51772757</v>
       </c>
       <c r="L4">
-        <v>2140050.9616196598</v>
+        <v>2140051.0554113099</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -2140,22 +2143,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
         <v>123</v>
@@ -2178,22 +2181,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
         <v>123</v>
@@ -2216,22 +2219,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
         <v>123</v>
@@ -2254,22 +2257,22 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
         <v>123</v>
@@ -2301,28 +2304,28 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="H9">
-        <v>19.347625907730698</v>
+        <v>19.3476271939317</v>
       </c>
       <c r="I9">
-        <v>-155.275857030434</v>
+        <v>-155.27585896706199</v>
       </c>
       <c r="J9">
-        <v>1007.81998095941</v>
+        <v>1007.81920117978</v>
       </c>
       <c r="K9">
-        <v>260918.691971953</v>
+        <v>260918.49031796699</v>
       </c>
       <c r="L9">
-        <v>2140865.90555414</v>
+        <v>2140866.0506428801</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -2339,28 +2342,28 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="H10">
-        <v>19.348644693823399</v>
+        <v>19.348645721066301</v>
       </c>
       <c r="I10">
-        <v>-155.275957233273</v>
+        <v>-155.275958779501</v>
       </c>
       <c r="J10">
-        <v>1008.05849543959</v>
+        <v>1008.05787199084</v>
       </c>
       <c r="K10">
-        <v>260909.64650683099</v>
+        <v>260909.48550536</v>
       </c>
       <c r="L10">
-        <v>2140978.8448315999</v>
+        <v>2140978.9607083299</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -2368,22 +2371,22 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
         <v>123</v>
@@ -2406,22 +2409,22 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
         <v>123</v>
@@ -2453,28 +2456,28 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="H13">
-        <v>19.3511656297207</v>
+        <v>19.351167011723302</v>
       </c>
       <c r="I13">
-        <v>-155.27708962915199</v>
+        <v>-155.27709170955001</v>
       </c>
       <c r="J13">
-        <v>1026.4125811988499</v>
+        <v>1026.41178673692</v>
       </c>
       <c r="K13">
-        <v>260794.316057599</v>
+        <v>260794.09943995901</v>
       </c>
       <c r="L13">
-        <v>2141259.5320859002</v>
+        <v>2141259.6879829499</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -2491,28 +2494,28 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="H14">
-        <v>19.351317772766699</v>
+        <v>19.351318961198199</v>
       </c>
       <c r="I14">
-        <v>-155.27721001677</v>
+        <v>-155.277211805869</v>
       </c>
       <c r="J14">
-        <v>1025.16990263294</v>
+        <v>1025.1691699810301</v>
       </c>
       <c r="K14">
-        <v>260781.88621007401</v>
+        <v>260781.69992358499</v>
       </c>
       <c r="L14">
-        <v>2141276.5441791401</v>
+        <v>2141276.6782406499</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -2529,28 +2532,28 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="H15">
-        <v>19.351353135526399</v>
+        <v>19.3513539840657</v>
       </c>
       <c r="I15">
-        <v>-155.277662445261</v>
+        <v>-155.277663722488</v>
       </c>
       <c r="J15">
-        <v>1023.77845493983</v>
+        <v>1023.77803898696</v>
       </c>
       <c r="K15">
-        <v>260734.39108185199</v>
+        <v>260734.25809346</v>
       </c>
       <c r="L15">
-        <v>2141281.0861499798</v>
+        <v>2141281.1818699399</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -2567,28 +2570,28 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="H16">
-        <v>19.3520326939006</v>
+        <v>19.352033669341701</v>
       </c>
       <c r="I16">
-        <v>-155.277481618834</v>
+        <v>-155.27748308659</v>
       </c>
       <c r="J16">
-        <v>1023.4542043712</v>
+        <v>1023.45362051576</v>
       </c>
       <c r="K16">
-        <v>260754.38611738599</v>
+        <v>260754.233291563</v>
       </c>
       <c r="L16">
-        <v>2141356.0769098601</v>
+        <v>2141356.1869442598</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -2596,22 +2599,22 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
         <v>123</v>
@@ -2643,28 +2646,28 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="H18">
-        <v>19.353080188096602</v>
+        <v>19.3530809334606</v>
       </c>
       <c r="I18">
-        <v>-155.277701378318</v>
+        <v>-155.27770249900399</v>
       </c>
       <c r="J18">
-        <v>1020.79143042117</v>
+        <v>1020.79094953835</v>
       </c>
       <c r="K18">
-        <v>260732.819865906</v>
+        <v>260732.70317945801</v>
       </c>
       <c r="L18">
-        <v>2141472.36064668</v>
+        <v>2141472.4447263302</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -2681,28 +2684,28 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H19">
-        <v>19.354068604821901</v>
+        <v>19.3540699101654</v>
       </c>
       <c r="I19">
-        <v>-155.27792773140999</v>
+        <v>-155.27792969644599</v>
       </c>
       <c r="J19">
-        <v>1024.2914072144799</v>
+        <v>1024.2906436575599</v>
       </c>
       <c r="K19">
-        <v>260710.474831142</v>
+        <v>260710.27022984301</v>
       </c>
       <c r="L19">
-        <v>2141582.1124823401</v>
+        <v>2141582.2597333398</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -2710,22 +2713,22 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
         <v>123</v>
@@ -2748,22 +2751,22 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
         <v>123</v>
@@ -2795,28 +2798,28 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="H22">
-        <v>19.352597313248101</v>
+        <v>19.352598422823199</v>
       </c>
       <c r="I22">
-        <v>-155.27744835866699</v>
+        <v>-155.27745002891999</v>
       </c>
       <c r="J22">
-        <v>1017.22632832173</v>
+        <v>1017.22571135778</v>
       </c>
       <c r="K22">
-        <v>260758.70536864901</v>
+        <v>260758.53145840499</v>
       </c>
       <c r="L22">
-        <v>2141418.5459196498</v>
+        <v>2141418.67108595</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -2824,22 +2827,22 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
         <v>123</v>
@@ -2862,22 +2865,22 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
         <v>123</v>
@@ -2909,28 +2912,28 @@
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="H25">
-        <v>19.358451737786002</v>
+        <v>19.358453045186</v>
       </c>
       <c r="I25">
-        <v>-155.279658316119</v>
+        <v>-155.279660283808</v>
       </c>
       <c r="J25">
-        <v>1046.8452624566901</v>
+        <v>1046.8444637702801</v>
       </c>
       <c r="K25">
-        <v>260535.009953139</v>
+        <v>260534.80508326899</v>
       </c>
       <c r="L25">
-        <v>2142069.8154392499</v>
+        <v>2142069.9629244301</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -2938,22 +2941,22 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
         <v>123</v>
@@ -2976,22 +2979,22 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
         <v>123</v>
@@ -3023,28 +3026,28 @@
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="H28">
-        <v>19.360234737260701</v>
+        <v>19.360236163380701</v>
       </c>
       <c r="I28">
-        <v>-155.28033878624899</v>
+        <v>-155.28034093286999</v>
       </c>
       <c r="J28">
-        <v>1032.0853825165</v>
+        <v>1032.0845869751599</v>
       </c>
       <c r="K28">
-        <v>260466.10676532099</v>
+        <v>260465.88326846299</v>
       </c>
       <c r="L28">
-        <v>2142268.1746646101</v>
+        <v>2142268.33554391</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -3061,28 +3064,28 @@
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="H29">
-        <v>19.361223032173498</v>
+        <v>19.361224340272301</v>
       </c>
       <c r="I29">
-        <v>-155.280483800909</v>
+        <v>-155.28048576990301</v>
       </c>
       <c r="J29">
-        <v>1035.2281464021701</v>
+        <v>1035.2274369280799</v>
       </c>
       <c r="K29">
-        <v>260452.31228346701</v>
+        <v>260452.10728175199</v>
       </c>
       <c r="L29">
-        <v>2142377.8008551099</v>
+        <v>2142377.9484208901</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -3090,22 +3093,22 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
         <v>123</v>
@@ -3128,22 +3131,22 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
         <v>123</v>
@@ -3166,22 +3169,22 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
         <v>123</v>
@@ -3204,22 +3207,22 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
         <v>123</v>
@@ -3251,28 +3254,28 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="G34" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="H34">
-        <v>19.3645095802054</v>
+        <v>19.3645106926718</v>
       </c>
       <c r="I34">
-        <v>-155.28121946591301</v>
+        <v>-155.28122113889799</v>
       </c>
       <c r="J34">
-        <v>1050.52135287039</v>
+        <v>1050.5207534655899</v>
       </c>
       <c r="K34">
-        <v>260379.81026766601</v>
+        <v>260379.636090646</v>
       </c>
       <c r="L34">
-        <v>2142742.7118167998</v>
+        <v>2142742.8373124599</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -3280,22 +3283,22 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
         <v>123</v>
@@ -3318,22 +3321,22 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
         <v>123</v>
@@ -3365,28 +3368,28 @@
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="G37" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="H37">
-        <v>19.367354274087599</v>
+        <v>19.367355240027301</v>
       </c>
       <c r="I37">
-        <v>-155.282311495953</v>
+        <v>-155.28231295057299</v>
       </c>
       <c r="J37">
-        <v>1048.1668849131099</v>
+        <v>1048.16630576737</v>
       </c>
       <c r="K37">
-        <v>260269.21796975</v>
+        <v>260269.066528564</v>
       </c>
       <c r="L37">
-        <v>2143059.19580629</v>
+        <v>2143059.3047765698</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -3403,28 +3406,28 @@
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="H38">
-        <v>19.368320747824601</v>
+        <v>19.368321714886299</v>
       </c>
       <c r="I38">
-        <v>-155.28249561259599</v>
+        <v>-155.28249706682701</v>
       </c>
       <c r="J38">
-        <v>1053.13301084563</v>
+        <v>1053.1323814345501</v>
       </c>
       <c r="K38">
-        <v>260251.28506316899</v>
+        <v>260251.133665614</v>
       </c>
       <c r="L38">
-        <v>2143166.4606700498</v>
+        <v>2143166.5697642802</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -3432,22 +3435,22 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
         <v>123</v>
@@ -3470,22 +3473,22 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
         <v>123</v>
@@ -3508,22 +3511,22 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
         <v>123</v>
@@ -3546,22 +3549,22 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F42" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
         <v>123</v>
@@ -3584,22 +3587,22 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
         <v>123</v>
@@ -3631,28 +3634,28 @@
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="G44" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H44">
-        <v>19.372889738186</v>
+        <v>19.3728911416143</v>
       </c>
       <c r="I44">
-        <v>-155.28458397267099</v>
+        <v>-155.28458608391699</v>
       </c>
       <c r="J44">
-        <v>1057.82588268071</v>
+        <v>1057.82502981834</v>
       </c>
       <c r="K44">
-        <v>260038.53067054701</v>
+        <v>260038.310879731</v>
       </c>
       <c r="L44">
-        <v>2143675.2476504799</v>
+        <v>2143675.4059758801</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -3669,28 +3672,28 @@
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="H45">
-        <v>19.373888498016299</v>
+        <v>19.373889901463802</v>
       </c>
       <c r="I45">
-        <v>-155.282833498613</v>
+        <v>-155.282835609855</v>
       </c>
       <c r="J45">
-        <v>1062.7995904823799</v>
+        <v>1062.79873393197</v>
       </c>
       <c r="K45">
-        <v>260223.93066326401</v>
+        <v>260223.71087298499</v>
       </c>
       <c r="L45">
-        <v>2143783.3983695898</v>
+        <v>2143783.5566948499</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -3707,28 +3710,28 @@
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="G46" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="H46">
-        <v>19.375255852140899</v>
+        <v>19.375256933322898</v>
       </c>
       <c r="I46">
-        <v>-155.28319574851801</v>
+        <v>-155.283197374883</v>
       </c>
       <c r="J46">
-        <v>1065.0990138500899</v>
+        <v>1065.0983386635801</v>
       </c>
       <c r="K46">
-        <v>260187.86861783499</v>
+        <v>260187.699307409</v>
       </c>
       <c r="L46">
-        <v>2143935.2970377798</v>
+        <v>2143935.4190081502</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -3736,22 +3739,22 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
         <v>123</v>
@@ -3774,22 +3777,22 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
         <v>123</v>
@@ -3812,22 +3815,22 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G49" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
         <v>123</v>
@@ -3850,22 +3853,22 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G50" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
         <v>123</v>
@@ -3888,22 +3891,22 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G51" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
         <v>123</v>
@@ -3926,22 +3929,22 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G52" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
         <v>123</v>
@@ -3964,22 +3967,22 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G53" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
         <v>123</v>
@@ -4002,22 +4005,22 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F54" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G54" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
         <v>123</v>
@@ -4040,22 +4043,22 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F55" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G55" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
         <v>123</v>
@@ -4078,22 +4081,22 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F56" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G56" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
         <v>123</v>
@@ -4116,22 +4119,22 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G57" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
         <v>123</v>
@@ -4154,22 +4157,22 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G58" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
         <v>123</v>
@@ -4201,28 +4204,28 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="G59" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="H59">
-        <v>19.329647205626301</v>
+        <v>19.329648438080699</v>
       </c>
       <c r="I59">
-        <v>-155.27998169502499</v>
+        <v>-155.279983549142</v>
       </c>
       <c r="J59">
-        <v>928.55640532262601</v>
+        <v>928.55563130509097</v>
       </c>
       <c r="K59">
-        <v>260458.96626805601</v>
+        <v>260458.77318702001</v>
       </c>
       <c r="L59">
-        <v>2138881.0026760502</v>
+        <v>2138881.1417024801</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
@@ -4239,28 +4242,28 @@
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="G60" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="H60">
-        <v>19.328787270306801</v>
+        <v>19.328788290727701</v>
       </c>
       <c r="I60">
-        <v>-155.28038454320199</v>
+        <v>-155.28038607898901</v>
       </c>
       <c r="J60">
-        <v>923.61683011520699</v>
+        <v>923.61621004156802</v>
       </c>
       <c r="K60">
-        <v>260415.36940165801</v>
+        <v>260415.20946903099</v>
       </c>
       <c r="L60">
-        <v>2138786.3481087</v>
+        <v>2138786.46321801</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
@@ -4268,22 +4271,22 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G61" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
         <v>123</v>
@@ -4306,22 +4309,22 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G62" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
         <v>123</v>
@@ -4353,28 +4356,28 @@
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="F63" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="G63" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="H63">
-        <v>19.326123772135301</v>
+        <v>19.3261247925577</v>
       </c>
       <c r="I63">
-        <v>-155.28038130536601</v>
+        <v>-155.28038284113001</v>
       </c>
       <c r="J63">
-        <v>914.58470210526104</v>
+        <v>914.58407677151297</v>
       </c>
       <c r="K63">
-        <v>260411.82300087201</v>
+        <v>260411.66306781501</v>
       </c>
       <c r="L63">
-        <v>2138491.4393261899</v>
+        <v>2138491.55443535</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -4391,28 +4394,28 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="G64" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="H64">
-        <v>19.325392923294999</v>
+        <v>19.325393026867101</v>
       </c>
       <c r="I64">
-        <v>-155.280396719229</v>
+        <v>-155.280396876228</v>
       </c>
       <c r="J64">
-        <v>910.301050822251</v>
+        <v>910.30098870117195</v>
       </c>
       <c r="K64">
-        <v>260409.136460423</v>
+        <v>260409.12010955799</v>
       </c>
       <c r="L64">
-        <v>2138410.5406176201</v>
+        <v>2138410.5523026502</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -4420,22 +4423,22 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D65" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
         <v>123</v>
@@ -4458,22 +4461,22 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G66" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
         <v>123</v>
@@ -4493,5 +4496,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>